--- a/storage/exports/rekap_reject_08_2025.xlsx
+++ b/storage/exports/rekap_reject_08_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Project\cek-gambar-astra\storage\exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C53BF08-F4EE-487D-9935-8E7C5D70D5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569396F8-E0DE-4E39-87AD-F48940AD64F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2315,6 +2315,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2667,7 +2668,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2742,7 +2745,7 @@
   <dimension ref="A1:J268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11350,7 +11353,7 @@
   <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
